--- a/output/fit_clients/fit_round_122.xlsx
+++ b/output/fit_clients/fit_round_122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2279502126.701847</v>
+        <v>1766963804.830154</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08999754242350598</v>
+        <v>0.0690826327143224</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03773060440158377</v>
+        <v>0.02874561924216718</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1139751096.501856</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2632150582.960413</v>
+        <v>2138707443.546999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1501574512630189</v>
+        <v>0.1258166528434393</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04795873350356401</v>
+        <v>0.04949003818098675</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1316075429.376143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4100704603.588856</v>
+        <v>4673960755.348104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.13321930437828</v>
+        <v>0.1254535999247459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03638659290530889</v>
+        <v>0.03718145243086058</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2050352323.062178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2592687524.076329</v>
+        <v>4074820424.274033</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06743685016527975</v>
+        <v>0.08946095569064523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03443714982503376</v>
+        <v>0.04829860653806956</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1296343858.778527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2321385142.477948</v>
+        <v>2566340305.175339</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1113042826734632</v>
+        <v>0.1436934805751299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05617680731124994</v>
+        <v>0.03763087426744052</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1160692566.005938</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2012989041.524065</v>
+        <v>2878788956.857321</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06498796382546658</v>
+        <v>0.09150141228285233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03289403825684334</v>
+        <v>0.04145734897643126</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1006494580.664005</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3175505245.393952</v>
+        <v>2749211994.305822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1902989816985825</v>
+        <v>0.1425850402264507</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03160548169662702</v>
+        <v>0.02940456409228369</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1587752698.102167</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1744484409.464831</v>
+        <v>2182661757.225795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1291095533733125</v>
+        <v>0.1739199134334549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02655422416697648</v>
+        <v>0.02826256144333451</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>872242266.730576</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4608524763.610053</v>
+        <v>4774829606.209336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1407104289054364</v>
+        <v>0.1858501365008396</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03422904386754659</v>
+        <v>0.04029923473472184</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2304262450.739071</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3669447035.00552</v>
+        <v>3382286861.240217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1535862370702112</v>
+        <v>0.1184498579233406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03730132720822657</v>
+        <v>0.03884224744430968</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>51</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1834723507.120781</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2507538927.241688</v>
+        <v>2796313083.596495</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403476708975789</v>
+        <v>0.1927526923706342</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04345392941548186</v>
+        <v>0.0524374451084356</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>43</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1253769436.494087</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3960901878.712723</v>
+        <v>4068310083.265042</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08965589309178019</v>
+        <v>0.09939982207567609</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02482672255089699</v>
+        <v>0.02522296782408971</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>41</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1980450996.211312</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2876358865.286946</v>
+        <v>3841370228.590191</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1672138721981932</v>
+        <v>0.1577787962341963</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03934374574447826</v>
+        <v>0.02985656888281759</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>39</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1438179475.963232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1526786623.175107</v>
+        <v>1501659585.785275</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1039072758202955</v>
+        <v>0.107334708871958</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03267576005706592</v>
+        <v>0.04570007226183977</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>763393403.1084564</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2386280858.530767</v>
+        <v>2882129690.790855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09239916050742392</v>
+        <v>0.1024714169440447</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04378506321954019</v>
+        <v>0.04293386746946538</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1193140470.190269</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4689449853.656426</v>
+        <v>4731920686.650654</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303168715953012</v>
+        <v>0.1173779712150209</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04539986452229004</v>
+        <v>0.04216001186044926</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2344724927.310152</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3185404227.337941</v>
+        <v>2761359950.816326</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1794194733393759</v>
+        <v>0.1271830530272779</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02369906398410326</v>
+        <v>0.02516262812046484</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1592702130.414184</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1375681003.394596</v>
+        <v>1267951779.515801</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1633257473896895</v>
+        <v>0.1401244560151458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01967004181080054</v>
+        <v>0.01861319214588868</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>687840622.3263167</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1987047972.392488</v>
+        <v>1742394990.08723</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09894710034987114</v>
+        <v>0.1322442653867864</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03064704384748816</v>
+        <v>0.02589185163579514</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17</v>
-      </c>
-      <c r="J20" t="n">
-        <v>993524013.8526851</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2238089561.944647</v>
+        <v>2524712369.433444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08605896110597358</v>
+        <v>0.09340060084079074</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04229346789928513</v>
+        <v>0.03149304106837035</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1119044794.070377</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2860721137.137249</v>
+        <v>3113976983.690771</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1408135246116899</v>
+        <v>0.1343326345252879</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05433382365801744</v>
+        <v>0.05293392792890681</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>33</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1430360638.392684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>964676007.7741045</v>
+        <v>1010417811.054167</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1221599527638084</v>
+        <v>0.165969776125214</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03879709608109884</v>
+        <v>0.04161414984647793</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>482338079.9705625</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3023673405.118645</v>
+        <v>2687543254.564993</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1342009265284239</v>
+        <v>0.1179004746928448</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03736890604471695</v>
+        <v>0.02990507070609396</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>35</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1511836736.163413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1247561785.677553</v>
+        <v>1240631844.806282</v>
       </c>
       <c r="F25" t="n">
-        <v>0.104284447361441</v>
+        <v>0.09955887204854995</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0224339356377367</v>
+        <v>0.02507065541495218</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>623780899.8150579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>973779132.0548898</v>
+        <v>1173728108.020157</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09474379041631012</v>
+        <v>0.08369620034440615</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03056469708741002</v>
+        <v>0.03858509239513287</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>486889531.637893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4660995968.174074</v>
+        <v>4295176919.365077</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1512731317228821</v>
+        <v>0.1556909675155846</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01820054927504295</v>
+        <v>0.02340973440374072</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2330497961.344427</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3091385138.038961</v>
+        <v>2999939638.44811</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1403452860223235</v>
+        <v>0.120477641557745</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04414370279737451</v>
+        <v>0.04738303613496275</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>39</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1545692588.115915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4903125519.256975</v>
+        <v>4677899982.180981</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1233856163014237</v>
+        <v>0.09702006351791019</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03494227005393605</v>
+        <v>0.04553061829669518</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2451562713.828338</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1940871818.986271</v>
+        <v>1639403417.886424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.097773892175974</v>
+        <v>0.1066988084411534</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02849125093533958</v>
+        <v>0.03841578676020842</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>970435940.1521161</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1424567336.633729</v>
+        <v>1222840278.463824</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07821508320379104</v>
+        <v>0.0908536265368752</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04894112952570669</v>
+        <v>0.04593346774641512</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>712283566.8761641</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1340888425.240286</v>
+        <v>1474293181.328916</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1085975763450242</v>
+        <v>0.1046332003506583</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03449336325092244</v>
+        <v>0.02824886827095363</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>670444247.9758627</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1957000153.183105</v>
+        <v>2702058910.401129</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1370373994788248</v>
+        <v>0.129025765406649</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04241697518612223</v>
+        <v>0.05079363357984549</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>36</v>
-      </c>
-      <c r="J33" t="n">
-        <v>978500161.0052885</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1096200691.373346</v>
+        <v>1523467339.039549</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1060684169780253</v>
+        <v>0.1136845584465889</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02714213377895965</v>
+        <v>0.02798465995898104</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>548100367.7155086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1363705436.820362</v>
+        <v>1324981872.661259</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08196795201008729</v>
+        <v>0.08490426760469008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03317102881092825</v>
+        <v>0.04328765803840692</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>681852657.1713678</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3089349443.348285</v>
+        <v>2916873698.082777</v>
       </c>
       <c r="F36" t="n">
-        <v>0.174949641837866</v>
+        <v>0.1254237544344518</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02136010195050747</v>
+        <v>0.01825456220487135</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>30</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1544674696.375898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2355732731.300172</v>
+        <v>2464842002.526083</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059467650925128</v>
+        <v>0.08179245972721678</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03083323788114923</v>
+        <v>0.03039228481333089</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1177866441.804357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1918723849.335103</v>
+        <v>1553497642.769753</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1000157216725776</v>
+        <v>0.1168850478874256</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02643300895383734</v>
+        <v>0.03056735425044713</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>959361914.7233419</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1902364346.672211</v>
+        <v>1975668039.031213</v>
       </c>
       <c r="F39" t="n">
-        <v>0.182854432090011</v>
+        <v>0.1434593001565439</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03203972058111738</v>
+        <v>0.02504539034080113</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>951182182.6601051</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1126566090.558193</v>
+        <v>1669705117.685581</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1238877441825654</v>
+        <v>0.1514715626287007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05618698145736414</v>
+        <v>0.04748104664161971</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>563283104.9085881</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2069509119.586961</v>
+        <v>2353837671.09925</v>
       </c>
       <c r="F41" t="n">
-        <v>0.113606949553604</v>
+        <v>0.1569430595675575</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03727534958123072</v>
+        <v>0.02852635611796032</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1034754627.191207</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3118019271.062159</v>
+        <v>3540178406.269615</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0896624996302607</v>
+        <v>0.09794596589377129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03963819047849002</v>
+        <v>0.03549837511157211</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1559009604.056407</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3071148494.077236</v>
+        <v>2563174017.86307</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1412825452276464</v>
+        <v>0.127016753899217</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01885644057115255</v>
+        <v>0.02506907568986775</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1535574238.193656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2227217922.120714</v>
+        <v>1621519818.864838</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08558798937550957</v>
+        <v>0.07596247208618287</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02898308882306</v>
+        <v>0.03334323023344391</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1113609112.6792</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2147097411.448666</v>
+        <v>2011304938.797161</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1178944634808799</v>
+        <v>0.1403696410167194</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04013574806530258</v>
+        <v>0.05409632675049759</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1073548711.340034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4432360857.064532</v>
+        <v>5073026516.360047</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1554961581863583</v>
+        <v>0.120469719140277</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05971517217303893</v>
+        <v>0.05130525567930818</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>44</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2216180422.75915</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4695281404.972164</v>
+        <v>3573258048.11447</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1394879152721515</v>
+        <v>0.1362628662986793</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0414255094897896</v>
+        <v>0.04227913949052325</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>33</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2347640740.968606</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4100278148.435298</v>
+        <v>3037334894.123882</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06929707366186824</v>
+        <v>0.08677404052604561</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02779580341967024</v>
+        <v>0.02782573048139486</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2050139102.709534</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1259838898.197776</v>
+        <v>1886145744.10903</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1401481641010063</v>
+        <v>0.1320417599437473</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02950646314207801</v>
+        <v>0.03581792125257893</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>629919518.4213862</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3742975852.979991</v>
+        <v>4177110177.843676</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1671634725725446</v>
+        <v>0.114415015555337</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04053366525762964</v>
+        <v>0.03691461401386224</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>42</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1871487933.414871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1501504394.548739</v>
+        <v>1329886190.740637</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1238453169702989</v>
+        <v>0.1777227632886639</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03456447664612445</v>
+        <v>0.03320798813002361</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>750752199.8950012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3788976869.121408</v>
+        <v>4521705419.17088</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1213428446821331</v>
+        <v>0.08373850580921327</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04373094533995325</v>
+        <v>0.04692402148885932</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>50</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1894488503.409215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3692796946.934913</v>
+        <v>3755051952.543987</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1456518160956972</v>
+        <v>0.1347450786216696</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03458984889935583</v>
+        <v>0.03179398921583391</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>35</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1846398458.040849</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4825669526.873713</v>
+        <v>3589482063.051234</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1208846433249873</v>
+        <v>0.1032458677204662</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05111432125252031</v>
+        <v>0.03783304551149495</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>42</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2412834892.280031</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3831931283.031874</v>
+        <v>3441964845.947636</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1388469033790684</v>
+        <v>0.2040070083469985</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02549245068472141</v>
+        <v>0.02526247450895496</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1915965608.95534</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1148976991.32533</v>
+        <v>1335889211.58228</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1258831397548549</v>
+        <v>0.1515182106417563</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04832785721713242</v>
+        <v>0.05068686258391892</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>574488589.8891104</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4002983596.366534</v>
+        <v>2874786266.201756</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1232967245418276</v>
+        <v>0.1276662434297293</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02129900325121714</v>
+        <v>0.01762985215898208</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>39</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2001491886.74655</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1518809347.501624</v>
+        <v>1299184699.211357</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1402861075390075</v>
+        <v>0.1504787828275511</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03116170290626528</v>
+        <v>0.02834285999417811</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>759404703.1142833</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5236606389.835411</v>
+        <v>5007082537.17557</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1044792142533741</v>
+        <v>0.0795853590309672</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03759483910789747</v>
+        <v>0.0442684457297968</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2618303111.17038</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2659469586.491964</v>
+        <v>2560554291.364214</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1272484650401648</v>
+        <v>0.1420576176959618</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02351076111198295</v>
+        <v>0.02470096623655186</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>38</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1329734827.831374</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2515857647.153598</v>
+        <v>2965626541.633214</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1742091330575254</v>
+        <v>0.1525661883304864</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02704038060935406</v>
+        <v>0.03080547626442233</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1257928849.646621</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1320991294.302045</v>
+        <v>1739390969.828998</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1439299824775954</v>
+        <v>0.1895562510431187</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04129367132627482</v>
+        <v>0.03204624858538174</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>660495603.3209342</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5265566103.204574</v>
+        <v>5588811979.780857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06796033421639115</v>
+        <v>0.10070310467635</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04368507050665452</v>
+        <v>0.04013187942938281</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>35</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2632783057.48101</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3538784929.078952</v>
+        <v>3414003787.088144</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1632202631769057</v>
+        <v>0.1738235283906191</v>
       </c>
       <c r="G64" t="n">
-        <v>0.032051150622198</v>
+        <v>0.0323999922582965</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1769392467.895909</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5548874374.92626</v>
+        <v>3820303277.298345</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1429966693395174</v>
+        <v>0.1322017003097273</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02028256698498215</v>
+        <v>0.02260434151912976</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>44</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2774437113.571864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4333458677.404045</v>
+        <v>3758923965.578225</v>
       </c>
       <c r="F66" t="n">
-        <v>0.113837379877307</v>
+        <v>0.137450550930898</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04181416100021061</v>
+        <v>0.04252426798184138</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>35</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2166729330.096154</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2140385705.926434</v>
+        <v>2433383215.601479</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07346650860498556</v>
+        <v>0.09512414391826261</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03489364570585511</v>
+        <v>0.03452065879420534</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1070192943.903735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3855090033.792493</v>
+        <v>4636251889.221854</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1245943091697518</v>
+        <v>0.1524369810975157</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04124117134627093</v>
+        <v>0.04655848180323431</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>39</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1927545003.85275</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2236783373.113365</v>
+        <v>1499920424.777202</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1767034783465453</v>
+        <v>0.119654972182312</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03691025935001031</v>
+        <v>0.03835035240307408</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1118391722.064002</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3682658506.067367</v>
+        <v>2464722617.238443</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09168601021409249</v>
+        <v>0.08154212048402903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03721257691027503</v>
+        <v>0.04961589725682275</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>35</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1841329274.388922</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3999625006.836414</v>
+        <v>5432464019.066739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1205319369481815</v>
+        <v>0.1365687494719076</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02386937622444977</v>
+        <v>0.02835613268515731</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>44</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1999812534.412387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2090376810.485653</v>
+        <v>1612056300.38107</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07986203153891294</v>
+        <v>0.09902303322247309</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04293846023184014</v>
+        <v>0.03221419857604279</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1045188336.929165</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2649415108.450926</v>
+        <v>2333433783.002118</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1069791418256588</v>
+        <v>0.09279842283233398</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04990743399622574</v>
+        <v>0.03418152242298658</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>47</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1324707582.248301</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2584775723.479388</v>
+        <v>3740168550.715044</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1327707688386938</v>
+        <v>0.143283201566168</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02848352654177198</v>
+        <v>0.02945307200400892</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>42</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1292387962.986314</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2117842200.709462</v>
+        <v>2379511007.372066</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1153981335110371</v>
+        <v>0.1408069147071445</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02650604499034565</v>
+        <v>0.03282608803632129</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1058921053.40679</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4549490899.952775</v>
+        <v>4516328002.978139</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1170142471452861</v>
+        <v>0.1006917518631246</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02798939280889369</v>
+        <v>0.03166702356644589</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>27</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2274745457.651343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1895568098.409199</v>
+        <v>1406957706.461205</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1239524580515078</v>
+        <v>0.1167198985242468</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0234246598959219</v>
+        <v>0.02470012958337681</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>947784095.2320819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3709665838.926549</v>
+        <v>4612995922.048645</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1018753776485864</v>
+        <v>0.09211829106657984</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04549908087439643</v>
+        <v>0.04120221874887928</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>43</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1854832905.928359</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1636103302.189979</v>
+        <v>1205525847.945116</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1100081617654184</v>
+        <v>0.1460224978466842</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02496283562025188</v>
+        <v>0.04070163244521018</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>818051709.0747509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5266672121.677999</v>
+        <v>4521699349.565966</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07221287266895406</v>
+        <v>0.08950471432468413</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02412336350374678</v>
+        <v>0.03261076356617134</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2633336123.243005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4684067781.563306</v>
+        <v>4483513966.509662</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08584125094205854</v>
+        <v>0.1104381772370025</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03205870523915983</v>
+        <v>0.02945476464414429</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2342033879.316567</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3696416695.974927</v>
+        <v>3573399193.194486</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1435164580726593</v>
+        <v>0.1483982274479438</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02119418968159849</v>
+        <v>0.02368615445985257</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1848208404.631044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2318062906.282917</v>
+        <v>1636710206.896967</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1181798304144113</v>
+        <v>0.1510736113103999</v>
       </c>
       <c r="G83" t="n">
-        <v>0.044042343745149</v>
+        <v>0.0370648381270064</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1159031478.009312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1604638686.523957</v>
+        <v>2375686981.525231</v>
       </c>
       <c r="F84" t="n">
-        <v>0.111662668722183</v>
+        <v>0.11944302275243</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03601155634433992</v>
+        <v>0.04123514922185609</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>802319406.1130056</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2717840387.440944</v>
+        <v>2813055645.287996</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1653007201769464</v>
+        <v>0.1401669368409549</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04048852380725336</v>
+        <v>0.0420747816948088</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1358920222.665275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1762940544.666867</v>
+        <v>2197090822.294309</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1207721825465079</v>
+        <v>0.1200788628338541</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01764207609358332</v>
+        <v>0.02256046111292129</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>881470266.9378086</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1408312311.226204</v>
+        <v>1246558046.318687</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1206494641049986</v>
+        <v>0.1828752442912069</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03939485508790147</v>
+        <v>0.02882568852899297</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>704156264.5475067</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2308395616.520236</v>
+        <v>3698122610.746825</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1729895142094842</v>
+        <v>0.1197447123362967</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03295188138021182</v>
+        <v>0.03689560503766985</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>49</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1154197770.317989</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3235471568.169111</v>
+        <v>3445416681.743322</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1490338256664548</v>
+        <v>0.1334217904413432</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03154948522677474</v>
+        <v>0.03629510638297534</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1617735804.877202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1326952212.897153</v>
+        <v>2081537874.950983</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08536094069634184</v>
+        <v>0.09294211861736046</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04413889791473583</v>
+        <v>0.05327833222201426</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>663476053.4809511</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1864776348.827059</v>
+        <v>1668578891.416768</v>
       </c>
       <c r="F91" t="n">
-        <v>0.131516642309889</v>
+        <v>0.1335194091972034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0561873605126685</v>
+        <v>0.03911972246310236</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>932388164.6476265</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2756172479.928464</v>
+        <v>2155977797.837481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07741841551745397</v>
+        <v>0.1032349808837403</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04059557689438925</v>
+        <v>0.04739021689251086</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>29</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1378086243.219414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3895620653.429703</v>
+        <v>4039184424.348478</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1323805880881167</v>
+        <v>0.1211131073268708</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04571809323994462</v>
+        <v>0.05134799553804371</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1947810334.050375</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2206449244.679258</v>
+        <v>1526017191.012167</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1072384947592842</v>
+        <v>0.1300795019588175</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02971935275252011</v>
+        <v>0.0284049623479645</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1103224647.494688</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3258840403.176869</v>
+        <v>3238481862.016808</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09369161008747122</v>
+        <v>0.09954215308577403</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04494455929018092</v>
+        <v>0.04113375769146264</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>29</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1629420182.440897</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1869921349.167044</v>
+        <v>1509329024.329417</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1126763345921285</v>
+        <v>0.1042663497675017</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02979592148155381</v>
+        <v>0.04659902998896701</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>934960675.4110994</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5116337284.502227</v>
+        <v>4606601902.362472</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1118966312863435</v>
+        <v>0.1227770617786024</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02678754225775572</v>
+        <v>0.02477914186494818</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>40</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2558168788.350131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3832365923.400127</v>
+        <v>2501186890.520476</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08381600301286543</v>
+        <v>0.0817580830529286</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03188636523406683</v>
+        <v>0.02051710749373409</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>32</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1916183002.779311</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2612816312.965213</v>
+        <v>3435165023.788067</v>
       </c>
       <c r="F99" t="n">
-        <v>0.115077431765825</v>
+        <v>0.115116781372705</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03494999796467851</v>
+        <v>0.03460537669112269</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>37</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1306408114.330789</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4604081526.661349</v>
+        <v>3856767029.475929</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1679888639806729</v>
+        <v>0.1527149861441588</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02323373932408395</v>
+        <v>0.02001409589350384</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>37</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2302040882.166577</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3174687290.200016</v>
+        <v>2692462575.2732</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1487295175458827</v>
+        <v>0.1863275627146525</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03829771243814189</v>
+        <v>0.03977329432522525</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>51</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1587343757.2271</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_122.xlsx
+++ b/output/fit_clients/fit_round_122.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1766963804.830154</v>
+        <v>1748604757.835563</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0690826327143224</v>
+        <v>0.09993112584772225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02874561924216718</v>
+        <v>0.02859833890995747</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2138707443.546999</v>
+        <v>2155346113.147967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1258166528434393</v>
+        <v>0.1571551638787193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04949003818098675</v>
+        <v>0.03956803646097235</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4673960755.348104</v>
+        <v>4740005110.532001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1254535999247459</v>
+        <v>0.1228089512213135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03718145243086058</v>
+        <v>0.02946407505143324</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4074820424.274033</v>
+        <v>3589151805.030079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08946095569064523</v>
+        <v>0.1086649913315937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04829860653806956</v>
+        <v>0.03518546972038511</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2566340305.175339</v>
+        <v>2120490502.351917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1436934805751299</v>
+        <v>0.1188552104438158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03763087426744052</v>
+        <v>0.04671397273683912</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2878788956.857321</v>
+        <v>2065945510.070755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09150141228285233</v>
+        <v>0.08637780981592166</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04145734897643126</v>
+        <v>0.03846003507748286</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2749211994.305822</v>
+        <v>2715926452.480175</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1425850402264507</v>
+        <v>0.1359648774145148</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02940456409228369</v>
+        <v>0.02406642930565586</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2182661757.225795</v>
+        <v>1653155959.418285</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1739199134334549</v>
+        <v>0.1708317242962369</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02826256144333451</v>
+        <v>0.03393923766540518</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4774829606.209336</v>
+        <v>4147792497.172427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1858501365008396</v>
+        <v>0.16166641094342</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04029923473472184</v>
+        <v>0.04024322214890629</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3382286861.240217</v>
+        <v>3745333686.170584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1184498579233406</v>
+        <v>0.154000250523347</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03884224744430968</v>
+        <v>0.04363297149600187</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2796313083.596495</v>
+        <v>3320064361.02238</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1927526923706342</v>
+        <v>0.128953823446962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0524374451084356</v>
+        <v>0.0407831230374442</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4068310083.265042</v>
+        <v>3813529178.633804</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09939982207567609</v>
+        <v>0.09267256570435091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02522296782408971</v>
+        <v>0.02018496327874304</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3841370228.590191</v>
+        <v>3660827883.483247</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1577787962341963</v>
+        <v>0.1590104069815936</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02985656888281759</v>
+        <v>0.02811673590352395</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1501659585.785275</v>
+        <v>1496283731.516436</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107334708871958</v>
+        <v>0.06974334006994469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04570007226183977</v>
+        <v>0.04672580977829915</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2882129690.790855</v>
+        <v>1929994043.590964</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1024714169440447</v>
+        <v>0.1017802601884119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04293386746946538</v>
+        <v>0.04496938487178292</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4731920686.650654</v>
+        <v>3511568139.225546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1173779712150209</v>
+        <v>0.1363975025914869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04216001186044926</v>
+        <v>0.04975072542007241</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2761359950.816326</v>
+        <v>2416226379.917841</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1271830530272779</v>
+        <v>0.179538739302159</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02516262812046484</v>
+        <v>0.02954025932246519</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1267951779.515801</v>
+        <v>969748803.1512889</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1401244560151458</v>
+        <v>0.1330175715613416</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01861319214588868</v>
+        <v>0.01987436211538524</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1742394990.08723</v>
+        <v>2209442523.753356</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1322442653867864</v>
+        <v>0.1166469087247556</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02589185163579514</v>
+        <v>0.02139103585456318</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2524712369.433444</v>
+        <v>2186009583.201985</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09340060084079074</v>
+        <v>0.07907837329181434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03149304106837035</v>
+        <v>0.04099274309132468</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3113976983.690771</v>
+        <v>3423390097.74185</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1343326345252879</v>
+        <v>0.1375920446520232</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05293392792890681</v>
+        <v>0.04845227242302522</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1010417811.054167</v>
+        <v>1034412306.994246</v>
       </c>
       <c r="F23" t="n">
-        <v>0.165969776125214</v>
+        <v>0.1423333715842527</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04161414984647793</v>
+        <v>0.0486587296246382</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2687543254.564993</v>
+        <v>3707923999.934146</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1179004746928448</v>
+        <v>0.09910737592169513</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02990507070609396</v>
+        <v>0.02377677164975444</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1240631844.806282</v>
+        <v>1226404363.91748</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09955887204854995</v>
+        <v>0.1101265375662184</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02507065541495218</v>
+        <v>0.02412206030330508</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1173728108.020157</v>
+        <v>984264849.4757079</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08369620034440615</v>
+        <v>0.1183681443911911</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03858509239513287</v>
+        <v>0.03317178490709965</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4295176919.365077</v>
+        <v>3131366887.3427</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1556909675155846</v>
+        <v>0.09491423549485023</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02340973440374072</v>
+        <v>0.01910378419650337</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2999939638.44811</v>
+        <v>3559422526.883619</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120477641557745</v>
+        <v>0.1361220513146851</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04738303613496275</v>
+        <v>0.03992238751468115</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4677899982.180981</v>
+        <v>4218131800.945914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09702006351791019</v>
+        <v>0.1448128347519698</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04553061829669518</v>
+        <v>0.04357376787716514</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1639403417.886424</v>
+        <v>1605467926.054324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1066988084411534</v>
+        <v>0.123831198406177</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03841578676020842</v>
+        <v>0.02847496006537924</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1222840278.463824</v>
+        <v>1015982193.083286</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0908536265368752</v>
+        <v>0.096512407436536</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04593346774641512</v>
+        <v>0.03308702041706653</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1474293181.328916</v>
+        <v>1302398118.105136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1046332003506583</v>
+        <v>0.08931120050482802</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02824886827095363</v>
+        <v>0.03068820839292716</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2702058910.401129</v>
+        <v>2692010847.201317</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129025765406649</v>
+        <v>0.1582782282354658</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05079363357984549</v>
+        <v>0.0388605902813464</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1523467339.039549</v>
+        <v>1160094141.036501</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1136845584465889</v>
+        <v>0.08935672442701904</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02798465995898104</v>
+        <v>0.02282149903365624</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1324981872.661259</v>
+        <v>1176871580.570556</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08490426760469008</v>
+        <v>0.09886840215925671</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04328765803840692</v>
+        <v>0.02813147033819574</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2916873698.082777</v>
+        <v>2222108991.323837</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1254237544344518</v>
+        <v>0.1707742938721276</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01825456220487135</v>
+        <v>0.01909910764654318</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2464842002.526083</v>
+        <v>2416973755.594682</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08179245972721678</v>
+        <v>0.07765192109073628</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03039228481333089</v>
+        <v>0.03537032725776523</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1553497642.769753</v>
+        <v>1637964751.383842</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1168850478874256</v>
+        <v>0.08730470090032935</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03056735425044713</v>
+        <v>0.031164614617007</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1975668039.031213</v>
+        <v>2207647543.434613</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1434593001565439</v>
+        <v>0.1743972906243967</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02504539034080113</v>
+        <v>0.02475886133535941</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1669705117.685581</v>
+        <v>1517365050.097825</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1514715626287007</v>
+        <v>0.1131113702824476</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04748104664161971</v>
+        <v>0.05704066555467552</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2353837671.09925</v>
+        <v>2369980008.870589</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1569430595675575</v>
+        <v>0.1196312692477871</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02852635611796032</v>
+        <v>0.03046067780749815</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3540178406.269615</v>
+        <v>2721779533.619606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09794596589377129</v>
+        <v>0.08864699993983545</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03549837511157211</v>
+        <v>0.03062953770469124</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2563174017.86307</v>
+        <v>2939448557.229434</v>
       </c>
       <c r="F43" t="n">
-        <v>0.127016753899217</v>
+        <v>0.1572297119920485</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02506907568986775</v>
+        <v>0.0192224307426235</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1621519818.864838</v>
+        <v>1483251620.149498</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07596247208618287</v>
+        <v>0.1016477443557851</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03334323023344391</v>
+        <v>0.02440535424140697</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2011304938.797161</v>
+        <v>1642121943.709008</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1403696410167194</v>
+        <v>0.1396366516513993</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05409632675049759</v>
+        <v>0.05099036424069492</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5073026516.360047</v>
+        <v>4774717242.037136</v>
       </c>
       <c r="F46" t="n">
-        <v>0.120469719140277</v>
+        <v>0.1705407997712813</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05130525567930818</v>
+        <v>0.05324590712428047</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3573258048.11447</v>
+        <v>3499378287.661457</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1362628662986793</v>
+        <v>0.1662715601013463</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04227913949052325</v>
+        <v>0.04281002559294355</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3037334894.123882</v>
+        <v>3763425267.023473</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08677404052604561</v>
+        <v>0.1067832527203518</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02782573048139486</v>
+        <v>0.02733601435377314</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1886145744.10903</v>
+        <v>1633685166.176735</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1320417599437473</v>
+        <v>0.1541699790895282</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03581792125257893</v>
+        <v>0.02816542284581234</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4177110177.843676</v>
+        <v>3428912646.49733</v>
       </c>
       <c r="F50" t="n">
-        <v>0.114415015555337</v>
+        <v>0.149861051071304</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03691461401386224</v>
+        <v>0.04219862351224606</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1329886190.740637</v>
+        <v>1542015964.509736</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1777227632886639</v>
+        <v>0.1325447386733293</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03320798813002361</v>
+        <v>0.05093485004157729</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4521705419.17088</v>
+        <v>3926071496.032113</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08373850580921327</v>
+        <v>0.08920603343536766</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04692402148885932</v>
+        <v>0.05321558694774906</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3755051952.543987</v>
+        <v>3361946510.125993</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1347450786216696</v>
+        <v>0.1417184118585556</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03179398921583391</v>
+        <v>0.03408365915700027</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3589482063.051234</v>
+        <v>3736430225.49505</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1032458677204662</v>
+        <v>0.1372882852581516</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03783304551149495</v>
+        <v>0.04784662044694052</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3441964845.947636</v>
+        <v>4410248720.788862</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2040070083469985</v>
+        <v>0.2221813288065827</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02526247450895496</v>
+        <v>0.03034508834268048</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1335889211.58228</v>
+        <v>1844068590.784089</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1515182106417563</v>
+        <v>0.1361573222891249</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05068686258391892</v>
+        <v>0.04816555445874419</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2874786266.201756</v>
+        <v>3155921932.491143</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1276662434297293</v>
+        <v>0.1344759738015514</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01762985215898208</v>
+        <v>0.02087875114319008</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1299184699.211357</v>
+        <v>1856257428.87423</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1504787828275511</v>
+        <v>0.1263101330103387</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02834285999417811</v>
+        <v>0.03448512944877503</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5007082537.17557</v>
+        <v>4847603313.401197</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0795853590309672</v>
+        <v>0.1172597160946381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0442684457297968</v>
+        <v>0.0357399755309316</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2560554291.364214</v>
+        <v>2852048906.204103</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1420576176959618</v>
+        <v>0.1511162249188736</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02470096623655186</v>
+        <v>0.02602413505657987</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2965626541.633214</v>
+        <v>2527644534.045542</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1525661883304864</v>
+        <v>0.1423416722239452</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03080547626442233</v>
+        <v>0.02661559645032289</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1739390969.828998</v>
+        <v>1402862967.872921</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1895562510431187</v>
+        <v>0.1307695077704143</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03204624858538174</v>
+        <v>0.04372248045981281</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5588811979.780857</v>
+        <v>3484378432.125038</v>
       </c>
       <c r="F63" t="n">
-        <v>0.10070310467635</v>
+        <v>0.1028778261236434</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04013187942938281</v>
+        <v>0.03358140712530565</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3414003787.088144</v>
+        <v>3447817448.030119</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1738235283906191</v>
+        <v>0.1451475721767736</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0323999922582965</v>
+        <v>0.02906850340011478</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3820303277.298345</v>
+        <v>4945996001.668824</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1322017003097273</v>
+        <v>0.113709118129369</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02260434151912976</v>
+        <v>0.0250372715210826</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3758923965.578225</v>
+        <v>3995287523.522572</v>
       </c>
       <c r="F66" t="n">
-        <v>0.137450550930898</v>
+        <v>0.121169368791877</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04252426798184138</v>
+        <v>0.03243976715266448</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2433383215.601479</v>
+        <v>3209342716.18743</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09512414391826261</v>
+        <v>0.09177795378774373</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03452065879420534</v>
+        <v>0.03358439401749902</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4636251889.221854</v>
+        <v>5462225979.278401</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1524369810975157</v>
+        <v>0.1088727690503658</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04655848180323431</v>
+        <v>0.03441349352651611</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1499920424.777202</v>
+        <v>1503615812.648419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.119654972182312</v>
+        <v>0.1105562987735783</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03835035240307408</v>
+        <v>0.04522837670582578</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2464722617.238443</v>
+        <v>3011419973.206016</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08154212048402903</v>
+        <v>0.08737905763022041</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04961589725682275</v>
+        <v>0.03032536259446987</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5432464019.066739</v>
+        <v>5260906677.027991</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1365687494719076</v>
+        <v>0.1365200394363637</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02835613268515731</v>
+        <v>0.02661860001850886</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1612056300.38107</v>
+        <v>1403268838.803409</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09902303322247309</v>
+        <v>0.1046037157174839</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03221419857604279</v>
+        <v>0.05294158432430252</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2333433783.002118</v>
+        <v>2664953509.154476</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09279842283233398</v>
+        <v>0.09873435183689673</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03418152242298658</v>
+        <v>0.0333724105248912</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3740168550.715044</v>
+        <v>2556094732.116878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.143283201566168</v>
+        <v>0.1130789034148867</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02945307200400892</v>
+        <v>0.02387618282395314</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2379511007.372066</v>
+        <v>2507030118.774127</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1408069147071445</v>
+        <v>0.159315759583423</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03282608803632129</v>
+        <v>0.03462042007015302</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4516328002.978139</v>
+        <v>3568201810.203983</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1006917518631246</v>
+        <v>0.1210416454174666</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03166702356644589</v>
+        <v>0.02555978825274995</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1406957706.461205</v>
+        <v>2121055590.51741</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1167198985242468</v>
+        <v>0.1626600432401513</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02470012958337681</v>
+        <v>0.02593900545495555</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4612995922.048645</v>
+        <v>3518143042.857744</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09211829106657984</v>
+        <v>0.1099291170461282</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04120221874887928</v>
+        <v>0.04535092867964699</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1205525847.945116</v>
+        <v>1531305563.32557</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1460224978466842</v>
+        <v>0.1339903604304943</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04070163244521018</v>
+        <v>0.03356117041419298</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4521699349.565966</v>
+        <v>5329743190.911792</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08950471432468413</v>
+        <v>0.1048400739174881</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03261076356617134</v>
+        <v>0.02389512559298035</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4483513966.509662</v>
+        <v>4526369043.368528</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1104381772370025</v>
+        <v>0.1008566884888323</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02945476464414429</v>
+        <v>0.02629489381572857</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3573399193.194486</v>
+        <v>4754359002.12187</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1483982274479438</v>
+        <v>0.1515875384460176</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02368615445985257</v>
+        <v>0.02143668785517316</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1636710206.896967</v>
+        <v>1869535192.630836</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1510736113103999</v>
+        <v>0.136484397086075</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0370648381270064</v>
+        <v>0.02961097682377537</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2375686981.525231</v>
+        <v>2240927623.232898</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11944302275243</v>
+        <v>0.1099200454653289</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04123514922185609</v>
+        <v>0.0411866063786746</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2813055645.287996</v>
+        <v>3363323915.756899</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1401669368409549</v>
+        <v>0.1707688125810991</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0420747816948088</v>
+        <v>0.03567932491005867</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2197090822.294309</v>
+        <v>2135968250.297019</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1200788628338541</v>
+        <v>0.1630986824334906</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02256046111292129</v>
+        <v>0.02687639922698248</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1246558046.318687</v>
+        <v>925981690.4713662</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1828752442912069</v>
+        <v>0.1252742741611956</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02882568852899297</v>
+        <v>0.02720319633097912</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3698122610.746825</v>
+        <v>2354554367.59579</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1197447123362967</v>
+        <v>0.1671569300215301</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03689560503766985</v>
+        <v>0.03946476365850848</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3445416681.743322</v>
+        <v>3182536807.378848</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1334217904413432</v>
+        <v>0.1437217971509636</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03629510638297534</v>
+        <v>0.03639978402910129</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2081537874.950983</v>
+        <v>1491553843.20772</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09294211861736046</v>
+        <v>0.1317255014294841</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05327833222201426</v>
+        <v>0.04629781710327137</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1668578891.416768</v>
+        <v>1583204157.149485</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1335194091972034</v>
+        <v>0.1606075220491032</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03911972246310236</v>
+        <v>0.05105262493924004</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2155977797.837481</v>
+        <v>2517855549.842382</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1032349808837403</v>
+        <v>0.1001514301495287</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04739021689251086</v>
+        <v>0.04287545199792486</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4039184424.348478</v>
+        <v>4515713735.83651</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1211131073268708</v>
+        <v>0.1185722009431525</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05134799553804371</v>
+        <v>0.05335404605348686</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1526017191.012167</v>
+        <v>2219890762.86477</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1300795019588175</v>
+        <v>0.1335021566072541</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0284049623479645</v>
+        <v>0.02667014530000309</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3238481862.016808</v>
+        <v>2582056776.791851</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09954215308577403</v>
+        <v>0.1286063018111668</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04113375769146264</v>
+        <v>0.05054952251482236</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1509329024.329417</v>
+        <v>1673284196.485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1042663497675017</v>
+        <v>0.1321716574546859</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04659902998896701</v>
+        <v>0.04096534380188026</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4606601902.362472</v>
+        <v>4617297838.214323</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1227770617786024</v>
+        <v>0.1349057973166866</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02477914186494818</v>
+        <v>0.02122311441632512</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2501186890.520476</v>
+        <v>2985963249.37999</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0817580830529286</v>
+        <v>0.1125218507526339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02051710749373409</v>
+        <v>0.02982439225131469</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3435165023.788067</v>
+        <v>2655485540.068128</v>
       </c>
       <c r="F99" t="n">
-        <v>0.115116781372705</v>
+        <v>0.1164522687955143</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03460537669112269</v>
+        <v>0.03014979522319768</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3856767029.475929</v>
+        <v>4082318498.08799</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1527149861441588</v>
+        <v>0.1616455631165964</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02001409589350384</v>
+        <v>0.02496568847880402</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2692462575.2732</v>
+        <v>2294931085.177951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1863275627146525</v>
+        <v>0.2041867910318063</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03977329432522525</v>
+        <v>0.04859990267499627</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_122.xlsx
+++ b/output/fit_clients/fit_round_122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1748604757.835563</v>
+        <v>1739825024.603668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09993112584772225</v>
+        <v>0.1047463412484413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02859833890995747</v>
+        <v>0.03846403024323976</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2155346113.147967</v>
+        <v>2026355747.26448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1571551638787193</v>
+        <v>0.1347696475833502</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03956803646097235</v>
+        <v>0.03137745540488955</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4740005110.532001</v>
+        <v>5015362627.603413</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1228089512213135</v>
+        <v>0.1316771865895368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02946407505143324</v>
+        <v>0.02457997094424551</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>73</v>
+      </c>
+      <c r="J4" t="n">
+        <v>122</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3589151805.030079</v>
+        <v>3845633955.6209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1086649913315937</v>
+        <v>0.1055577650073009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03518546972038511</v>
+        <v>0.04695173998212287</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49</v>
+      </c>
+      <c r="J5" t="n">
+        <v>121</v>
+      </c>
+      <c r="K5" t="n">
+        <v>132.203284359271</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2120490502.351917</v>
+        <v>2429782073.73372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1188552104438158</v>
+        <v>0.1226550175072335</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04671397273683912</v>
+        <v>0.0380972365280456</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2065945510.070755</v>
+        <v>2864799192.209319</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08637780981592166</v>
+        <v>0.08519679439489178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03846003507748286</v>
+        <v>0.04918403774418113</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2715926452.480175</v>
+        <v>3931476421.311615</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1359648774145148</v>
+        <v>0.1470977509530247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02406642930565586</v>
+        <v>0.02157873363734484</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>121</v>
+      </c>
+      <c r="K8" t="n">
+        <v>124.9905450724789</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1653155959.418285</v>
+        <v>1592487585.979603</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1708317242962369</v>
+        <v>0.1958902561571831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03393923766540518</v>
+        <v>0.02932416909157556</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4147792497.172427</v>
+        <v>4036771352.8597</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16166641094342</v>
+        <v>0.1449383666796747</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04024322214890629</v>
+        <v>0.03691081223179359</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>111</v>
+      </c>
+      <c r="J10" t="n">
+        <v>122</v>
+      </c>
+      <c r="K10" t="n">
+        <v>144.4516247000826</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3745333686.170584</v>
+        <v>3901336582.520955</v>
       </c>
       <c r="F11" t="n">
-        <v>0.154000250523347</v>
+        <v>0.1232235606459518</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04363297149600187</v>
+        <v>0.03266856782332071</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>52</v>
+      </c>
+      <c r="J11" t="n">
+        <v>121</v>
+      </c>
+      <c r="K11" t="n">
+        <v>133.0558436126568</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3320064361.02238</v>
+        <v>3153227185.019229</v>
       </c>
       <c r="F12" t="n">
-        <v>0.128953823446962</v>
+        <v>0.180649904295378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0407831230374442</v>
+        <v>0.03675524751018171</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3813529178.633804</v>
+        <v>4571674837.178933</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09267256570435091</v>
+        <v>0.08497772534304923</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02018496327874304</v>
+        <v>0.02442222714371126</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>59</v>
+      </c>
+      <c r="J13" t="n">
+        <v>122</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3660827883.483247</v>
+        <v>2945994682.03553</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1590104069815936</v>
+        <v>0.1489987939796317</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02811673590352395</v>
+        <v>0.03365364540875248</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1496283731.516436</v>
+        <v>1213737136.602088</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06974334006994469</v>
+        <v>0.07065652252796285</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04672580977829915</v>
+        <v>0.03456264079988074</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1929994043.590964</v>
+        <v>1811685742.122437</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1017802601884119</v>
+        <v>0.0809679977457648</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04496938487178292</v>
+        <v>0.04661415362925352</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3511568139.225546</v>
+        <v>4821617027.734635</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1363975025914869</v>
+        <v>0.1188349358717304</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04975072542007241</v>
+        <v>0.04729484870672067</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>59</v>
+      </c>
+      <c r="J17" t="n">
+        <v>121</v>
+      </c>
+      <c r="K17" t="n">
+        <v>134.0833239029258</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2416226379.917841</v>
+        <v>3098854465.25444</v>
       </c>
       <c r="F18" t="n">
-        <v>0.179538739302159</v>
+        <v>0.1349118062811251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02954025932246519</v>
+        <v>0.0342617435000982</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>119</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>969748803.1512889</v>
+        <v>1225183880.997185</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1330175715613416</v>
+        <v>0.1690008247253527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01987436211538524</v>
+        <v>0.0232741343645501</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2209442523.753356</v>
+        <v>2330046351.718014</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1166469087247556</v>
+        <v>0.1602757545348168</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02139103585456318</v>
+        <v>0.02462173715564098</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2186009583.201985</v>
+        <v>2302634833.426744</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07907837329181434</v>
+        <v>0.1013575761267151</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04099274309132468</v>
+        <v>0.0373080018616784</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3423390097.74185</v>
+        <v>2984731460.443578</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1375920446520232</v>
+        <v>0.1150913921308778</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04845227242302522</v>
+        <v>0.05595744627178396</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>120</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1034412306.994246</v>
+        <v>1483953976.655029</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1423333715842527</v>
+        <v>0.1675306945187608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0486587296246382</v>
+        <v>0.04887951419988743</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3707923999.934146</v>
+        <v>3230881071.687933</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09910737592169513</v>
+        <v>0.1071000620746746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02377677164975444</v>
+        <v>0.02511939122695893</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>121</v>
+      </c>
+      <c r="K24" t="n">
+        <v>76.99699894992554</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1226404363.91748</v>
+        <v>1035093795.53677</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1101265375662184</v>
+        <v>0.08274184927838683</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02412206030330508</v>
+        <v>0.02021323665625715</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>984264849.4757079</v>
+        <v>924298654.8538131</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1183681443911911</v>
+        <v>0.1171102911803472</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03317178490709965</v>
+        <v>0.02480338633313014</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3131366887.3427</v>
+        <v>3822620510.383817</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09491423549485023</v>
+        <v>0.1552169760508149</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01910378419650337</v>
+        <v>0.01848767535809981</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>48</v>
+      </c>
+      <c r="J27" t="n">
+        <v>122</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3559422526.883619</v>
+        <v>3800556612.496101</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1361220513146851</v>
+        <v>0.104158961352533</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03992238751468115</v>
+        <v>0.04143960312192184</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>122</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4218131800.945914</v>
+        <v>4465882398.090827</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1448128347519698</v>
+        <v>0.1514148078988309</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04357376787716514</v>
+        <v>0.03403966661446386</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>113</v>
+      </c>
+      <c r="J29" t="n">
+        <v>122</v>
+      </c>
+      <c r="K29" t="n">
+        <v>176.9990095420488</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1605467926.054324</v>
+        <v>2261268189.54478</v>
       </c>
       <c r="F30" t="n">
-        <v>0.123831198406177</v>
+        <v>0.09942696522347703</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02847496006537924</v>
+        <v>0.03583985684668069</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1015982193.083286</v>
+        <v>1023703654.037698</v>
       </c>
       <c r="F31" t="n">
-        <v>0.096512407436536</v>
+        <v>0.108580363516836</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03308702041706653</v>
+        <v>0.04791123004218641</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1302398118.105136</v>
+        <v>1824761716.10113</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08931120050482802</v>
+        <v>0.08435625805193692</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03068820839292716</v>
+        <v>0.0260962089299267</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2692010847.201317</v>
+        <v>2478031649.408707</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1582782282354658</v>
+        <v>0.1966440671709202</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0388605902813464</v>
+        <v>0.05540466179396462</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1160094141.036501</v>
+        <v>1083651147.911537</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08935672442701904</v>
+        <v>0.08882271489125847</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02282149903365624</v>
+        <v>0.02036396331539354</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1176871580.570556</v>
+        <v>1224936394.29534</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09886840215925671</v>
+        <v>0.1130276152337254</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02813147033819574</v>
+        <v>0.03408467492308153</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2222108991.323837</v>
+        <v>2956849717.135726</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1707742938721276</v>
+        <v>0.1546223310777395</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01909910764654318</v>
+        <v>0.02820773649554069</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2416973755.594682</v>
+        <v>1980762479.393677</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07765192109073628</v>
+        <v>0.07620015445184067</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03537032725776523</v>
+        <v>0.03883721778670973</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1637964751.383842</v>
+        <v>2069906206.582285</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08730470090032935</v>
+        <v>0.1022656501584318</v>
       </c>
       <c r="G38" t="n">
-        <v>0.031164614617007</v>
+        <v>0.02583854202511281</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2207647543.434613</v>
+        <v>1471176471.600701</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1743972906243967</v>
+        <v>0.1621461297399281</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02475886133535941</v>
+        <v>0.03106042971768738</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1517365050.097825</v>
+        <v>1451013014.523497</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1131113702824476</v>
+        <v>0.1434384092036338</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05704066555467552</v>
+        <v>0.0479143959164813</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2369980008.870589</v>
+        <v>2779550423.917351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1196312692477871</v>
+        <v>0.1481524684051533</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03046067780749815</v>
+        <v>0.04323083256471295</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2721779533.619606</v>
+        <v>3384568983.478324</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08864699993983545</v>
+        <v>0.1201906030635386</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03062953770469124</v>
+        <v>0.04667675475896214</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44</v>
+      </c>
+      <c r="J42" t="n">
+        <v>121</v>
+      </c>
+      <c r="K42" t="n">
+        <v>94.77838994452875</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2939448557.229434</v>
+        <v>1897507490.986522</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1572297119920485</v>
+        <v>0.203374360017819</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0192224307426235</v>
+        <v>0.02372491869693224</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1483251620.149498</v>
+        <v>2289434001.562734</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1016477443557851</v>
+        <v>0.07153516358792511</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02440535424140697</v>
+        <v>0.02751416316982728</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1642121943.709008</v>
+        <v>2461042047.595754</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1396366516513993</v>
+        <v>0.1183710321405649</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05099036424069492</v>
+        <v>0.04104580269324223</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4774717242.037136</v>
+        <v>3830248778.27704</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1705407997712813</v>
+        <v>0.1650059586287695</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05324590712428047</v>
+        <v>0.03963168988149184</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>70</v>
+      </c>
+      <c r="J46" t="n">
+        <v>122</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3499378287.661457</v>
+        <v>4501430524.300903</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1662715601013463</v>
+        <v>0.1423737221445003</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04281002559294355</v>
+        <v>0.03629139897458765</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>54</v>
+      </c>
+      <c r="J47" t="n">
+        <v>121</v>
+      </c>
+      <c r="K47" t="n">
+        <v>125.3758734016803</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3763425267.023473</v>
+        <v>4694337283.974775</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1067832527203518</v>
+        <v>0.1034350211532578</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02733601435377314</v>
+        <v>0.03621199672572257</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>47</v>
+      </c>
+      <c r="J48" t="n">
+        <v>122</v>
+      </c>
+      <c r="K48" t="n">
+        <v>152.9764060908222</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1633685166.176735</v>
+        <v>1207940577.002395</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1541699790895282</v>
+        <v>0.1198917372601747</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02816542284581234</v>
+        <v>0.04202684411022094</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3428912646.49733</v>
+        <v>2869932158.957056</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149861051071304</v>
+        <v>0.1524705943513339</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04219862351224606</v>
+        <v>0.05096747944597101</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>42</v>
+      </c>
+      <c r="J50" t="n">
+        <v>120</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1542015964.509736</v>
+        <v>1327985843.317378</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1325447386733293</v>
+        <v>0.140657216692626</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05093485004157729</v>
+        <v>0.03600137329594309</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3926071496.032113</v>
+        <v>3468845943.367651</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08920603343536766</v>
+        <v>0.1368767700319226</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05321558694774906</v>
+        <v>0.06187407855417979</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>94</v>
+      </c>
+      <c r="J52" t="n">
+        <v>122</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3361946510.125993</v>
+        <v>3257698073.04975</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1417184118585556</v>
+        <v>0.1246599041513943</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03408365915700027</v>
+        <v>0.03077193709367946</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>121</v>
+      </c>
+      <c r="K53" t="n">
+        <v>78.66719668936055</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2343,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3736430225.49505</v>
+        <v>4318283885.34556</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1372882852581516</v>
+        <v>0.162575855748424</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04784662044694052</v>
+        <v>0.03763544143301165</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>56</v>
+      </c>
+      <c r="J54" t="n">
+        <v>122</v>
+      </c>
+      <c r="K54" t="n">
+        <v>151.045906808766</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2380,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4410248720.788862</v>
+        <v>4520538722.027524</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2221813288065827</v>
+        <v>0.1411482022787287</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03034508834268048</v>
+        <v>0.02928560559712996</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>56</v>
+      </c>
+      <c r="J55" t="n">
+        <v>121</v>
+      </c>
+      <c r="K55" t="n">
+        <v>138.0323201276098</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1844068590.784089</v>
+        <v>1825535717.862459</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1361573222891249</v>
+        <v>0.1346423372020225</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04816555445874419</v>
+        <v>0.0524789287310785</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3155921932.491143</v>
+        <v>3014773646.651919</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1344759738015514</v>
+        <v>0.1168382733655989</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02087875114319008</v>
+        <v>0.0183935594732113</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>47</v>
+      </c>
+      <c r="J57" t="n">
+        <v>119</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1856257428.87423</v>
+        <v>1832462164.462607</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1263101330103387</v>
+        <v>0.1462946276418405</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03448512944877503</v>
+        <v>0.03189271580071069</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4847603313.401197</v>
+        <v>4830418127.909616</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1172597160946381</v>
+        <v>0.1236931637768595</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0357399755309316</v>
+        <v>0.0360610022260659</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>59</v>
+      </c>
+      <c r="J59" t="n">
+        <v>122</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2852048906.204103</v>
+        <v>3339290016.501035</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1511162249188736</v>
+        <v>0.1730136929044848</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02602413505657987</v>
+        <v>0.02638620360469893</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2527644534.045542</v>
+        <v>2891558756.281653</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1423416722239452</v>
+        <v>0.1572113359345315</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02661559645032289</v>
+        <v>0.0294959401034124</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1402862967.872921</v>
+        <v>1550143028.581836</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1307695077704143</v>
+        <v>0.1572428004529966</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04372248045981281</v>
+        <v>0.04276427000595733</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3484378432.125038</v>
+        <v>4366881236.328921</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1028778261236434</v>
+        <v>0.09498295678344829</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03358140712530565</v>
+        <v>0.04262266933235612</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>60</v>
+      </c>
+      <c r="J63" t="n">
+        <v>122</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3447817448.030119</v>
+        <v>3671601436.893157</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1451475721767736</v>
+        <v>0.1240520141118442</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02906850340011478</v>
+        <v>0.03484266646473389</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>60</v>
+      </c>
+      <c r="J64" t="n">
+        <v>122</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4945996001.668824</v>
+        <v>5612363352.772725</v>
       </c>
       <c r="F65" t="n">
-        <v>0.113709118129369</v>
+        <v>0.1427975883166466</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0250372715210826</v>
+        <v>0.02222088450470654</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>101</v>
+      </c>
+      <c r="J65" t="n">
+        <v>122</v>
+      </c>
+      <c r="K65" t="n">
+        <v>155.2655822092107</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3995287523.522572</v>
+        <v>4467331272.459584</v>
       </c>
       <c r="F66" t="n">
-        <v>0.121169368791877</v>
+        <v>0.1198065262202963</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03243976715266448</v>
+        <v>0.04649763545794735</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>60</v>
+      </c>
+      <c r="J66" t="n">
+        <v>121</v>
+      </c>
+      <c r="K66" t="n">
+        <v>140.2680609340989</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3209342716.18743</v>
+        <v>2403643908.516778</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09177795378774373</v>
+        <v>0.06918523834332016</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03358439401749902</v>
+        <v>0.03714196246614524</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5462225979.278401</v>
+        <v>4500519985.783361</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1088727690503658</v>
+        <v>0.1376909614675161</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03441349352651611</v>
+        <v>0.0502034498032097</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>61</v>
+      </c>
+      <c r="J68" t="n">
+        <v>121</v>
+      </c>
+      <c r="K68" t="n">
+        <v>139.8324783359304</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1503615812.648419</v>
+        <v>1872185264.435069</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1105562987735783</v>
+        <v>0.1630714303211269</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04522837670582578</v>
+        <v>0.03878476067852041</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3011419973.206016</v>
+        <v>2654324125.73227</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08737905763022041</v>
+        <v>0.09786819428454609</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03032536259446987</v>
+        <v>0.03557288489057427</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5260906677.027991</v>
+        <v>4617149193.141775</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1365200394363637</v>
+        <v>0.1848925242507489</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02661860001850886</v>
+        <v>0.02564684695147698</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>98</v>
+      </c>
+      <c r="J71" t="n">
+        <v>122</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1403268838.803409</v>
+        <v>1709073539.280585</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1046037157174839</v>
+        <v>0.06954069377589857</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05294158432430252</v>
+        <v>0.03672067664810189</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2664953509.154476</v>
+        <v>3295535177.456422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09873435183689673</v>
+        <v>0.08439495728119455</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0333724105248912</v>
+        <v>0.03564963008587349</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2556094732.116878</v>
+        <v>2986575412.482467</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1130789034148867</v>
+        <v>0.1242460277582969</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02387618282395314</v>
+        <v>0.02694179598984213</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>41</v>
+      </c>
+      <c r="J74" t="n">
+        <v>120</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2507030118.774127</v>
+        <v>2495728076.092679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.159315759583423</v>
+        <v>0.1534310974733271</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03462042007015302</v>
+        <v>0.03595207237161524</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3568201810.203983</v>
+        <v>5021174924.865698</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1210416454174666</v>
+        <v>0.0849724546133859</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02555978825274995</v>
+        <v>0.02788983395532946</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>57</v>
+      </c>
+      <c r="J76" t="n">
+        <v>121</v>
+      </c>
+      <c r="K76" t="n">
+        <v>121.9234706646015</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2121055590.51741</v>
+        <v>2299442588.193676</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1626600432401513</v>
+        <v>0.12096987781054</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02593900545495555</v>
+        <v>0.02410901447054311</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3518143042.857744</v>
+        <v>3321501924.269598</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1099291170461282</v>
+        <v>0.1221501721340958</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04535092867964699</v>
+        <v>0.03471678573101274</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>60</v>
+      </c>
+      <c r="J78" t="n">
+        <v>119</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1531305563.32557</v>
+        <v>1403958930.864959</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1339903604304943</v>
+        <v>0.1767613836138958</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03356117041419298</v>
+        <v>0.02821142494543007</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5329743190.911792</v>
+        <v>5238080784.959783</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1048400739174881</v>
+        <v>0.1055882385682692</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02389512559298035</v>
+        <v>0.03105926444385296</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>59</v>
+      </c>
+      <c r="J80" t="n">
+        <v>121</v>
+      </c>
+      <c r="K80" t="n">
+        <v>112.5063530293402</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4526369043.368528</v>
+        <v>3656307948.461609</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1008566884888323</v>
+        <v>0.1356538465154403</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02629489381572857</v>
+        <v>0.02934176611725339</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>55</v>
+      </c>
+      <c r="J81" t="n">
+        <v>121</v>
+      </c>
+      <c r="K81" t="n">
+        <v>91.71830712334317</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4754359002.12187</v>
+        <v>4945496538.981281</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1515875384460176</v>
+        <v>0.1747865406613349</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02143668785517316</v>
+        <v>0.02389316398645238</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>84</v>
+      </c>
+      <c r="J82" t="n">
+        <v>122</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1869535192.630836</v>
+        <v>1534522550.582768</v>
       </c>
       <c r="F83" t="n">
-        <v>0.136484397086075</v>
+        <v>0.111847142157151</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02961097682377537</v>
+        <v>0.04272205318696724</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2240927623.232898</v>
+        <v>1678318430.54397</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1099200454653289</v>
+        <v>0.1176345902924481</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0411866063786746</v>
+        <v>0.03355522806747577</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3363323915.756899</v>
+        <v>3033436154.815179</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1707688125810991</v>
+        <v>0.1754363134227035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03567932491005867</v>
+        <v>0.03681869850660958</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2135968250.297019</v>
+        <v>1751634746.146016</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1630986824334906</v>
+        <v>0.1682678768576853</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02687639922698248</v>
+        <v>0.0218354728145174</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>925981690.4713662</v>
+        <v>913094967.7157512</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1252742741611956</v>
+        <v>0.1234920631422817</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02720319633097912</v>
+        <v>0.03147762613983902</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2354554367.59579</v>
+        <v>3422616998.048451</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1671569300215301</v>
+        <v>0.137895774156402</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03946476365850848</v>
+        <v>0.03387892214446739</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3182536807.378848</v>
+        <v>3246799880.432663</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1437217971509636</v>
+        <v>0.1039228373076032</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03639978402910129</v>
+        <v>0.029713672845306</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1491553843.20772</v>
+        <v>1362671429.738202</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1317255014294841</v>
+        <v>0.134446594916611</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04629781710327137</v>
+        <v>0.0432692090927665</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1583204157.149485</v>
+        <v>1718239110.694053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1606075220491032</v>
+        <v>0.1276766784666813</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05105262493924004</v>
+        <v>0.0600096645967895</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2517855549.842382</v>
+        <v>2356973057.291121</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001514301495287</v>
+        <v>0.08251544263700113</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04287545199792486</v>
+        <v>0.0394114193993491</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4515713735.83651</v>
+        <v>4705846170.923856</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1185722009431525</v>
+        <v>0.1285868213441416</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05335404605348686</v>
+        <v>0.03838392141588502</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>55</v>
+      </c>
+      <c r="J93" t="n">
+        <v>122</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2219890762.86477</v>
+        <v>2126726371.112317</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1335021566072541</v>
+        <v>0.130065250444443</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02667014530000309</v>
+        <v>0.04311454752691894</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2582056776.791851</v>
+        <v>2487672775.461071</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1286063018111668</v>
+        <v>0.08459470646121625</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05054952251482236</v>
+        <v>0.0461833758889997</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1673284196.485</v>
+        <v>2327526522.5131</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1321716574546859</v>
+        <v>0.1071241520309695</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04096534380188026</v>
+        <v>0.03568884608420625</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4617297838.214323</v>
+        <v>3459886039.132986</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1349057973166866</v>
+        <v>0.1626064183904204</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02122311441632512</v>
+        <v>0.02368329205477184</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>58</v>
+      </c>
+      <c r="J97" t="n">
+        <v>122</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2985963249.37999</v>
+        <v>2546013113.171668</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1125218507526339</v>
+        <v>0.07963325293193836</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02982439225131469</v>
+        <v>0.02086264829641866</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>121</v>
+      </c>
+      <c r="K98" t="n">
+        <v>46.16483478657856</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2655485540.068128</v>
+        <v>2282485807.679639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1164522687955143</v>
+        <v>0.09650416681170408</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03014979522319768</v>
+        <v>0.02619743149277469</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4082318498.08799</v>
+        <v>4476931766.150796</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1616455631165964</v>
+        <v>0.1634947375295101</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02496568847880402</v>
+        <v>0.02379549470108672</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>50</v>
+      </c>
+      <c r="J100" t="n">
+        <v>122</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2294931085.177951</v>
+        <v>2610717478.729479</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2041867910318063</v>
+        <v>0.1525303066897841</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04859990267499627</v>
+        <v>0.04143760344229031</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
